--- a/05 Database_Assignment/resources/字段信息及正则表达式.xlsx
+++ b/05 Database_Assignment/resources/字段信息及正则表达式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="none" filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="字段" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <definedName name="OLE_LINK1" localSheetId="5">台湾证件_正则表达式!#REF!</definedName>
     <definedName name="OLE_LINK1" localSheetId="3">香港证件_正则表达式!$I$5</definedName>
     <definedName name="OLE_LINK1" localSheetId="7">一些国家的身份证!$J$8</definedName>
-    <definedName name="OLE_LINK1" localSheetId="2">正则表达式!$J$8</definedName>
-    <definedName name="OLE_LINK1" localSheetId="6">'主要国家护照-正则表达式'!$K$8</definedName>
+    <definedName name="OLE_LINK1" localSheetId="2">正则表达式!$J$7</definedName>
+    <definedName name="OLE_LINK1" localSheetId="6">'主要国家护照-正则表达式'!$J$8</definedName>
     <definedName name="OLE_LINK1" localSheetId="0">字段!$L$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="163">
   <si>
     <t>Name</t>
   </si>
@@ -649,10 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编码设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>^[\u4E00-\u9FA5](</t>
     </r>
@@ -697,74 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大陆护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆旧版护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆因公护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆外交护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆电子护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆因公普通护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大陆新版因私护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[P|p][0-9]{7}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[G|g][0-9]{8}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(^[D|d][0-9]{7}$)|(^[D|d][0-9]{8}$)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[E|e][0-9]{8}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[H|h|M|m][0-9]{8,10}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[T|t][0-9]{8}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团队签注护照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华人民共和国旅行证，由驻外馆办法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(^[L|l][0-9]{7}$)|(^[L|l][0-9]{8}$)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[S|s][0-9]{1,20}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>签证类型正则表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,14 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>^[a-z|A-Z][0-9]{9}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>台湾身份证，第一个字母表示台湾的市，第二位只能是1或2，表示性别，整体验证为 A台北市10 B台中市11 C基隆市12 D台南市13 E高雄市14 F新北市15 G宜兰县16 H桃园市17 I嘉义市34 J新竹县18 K苗栗县19 M南投县21 N彰化县22 O新竹市35 P云林县23 Q嘉义县24 R台南县25 S高雄县26 T屏东县27 U花莲县28 V台东县29 W金门县32 X澎湖县30 Z连江县33。通算值= 首字母对应的第一位验证码+ 首字母对应的第二位验证码 * 9 + 性别码 * 8 + 第二位数字 * 7 + 第三位数字 * 6 + 第四位数字 * 5 + 第五位数字 * 4 + 第六位数字 * 3 + 第七位数字 * 2 + 第八位数字 * 1，最后一位数 =10- 通算值的末尾数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韩国身份证，前6位是出生日期的年月日为YYMMDD格式，中间一个减号。后7位第一位是1或2,表示男女，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,8 +778,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>^[A-Z|a-z][0-9]{6}[(|</t>
+    <t>香港回乡证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>澳门回乡证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[1-9][0-9]{5}[0-9]{2}((0[1-9])|(10|11|12))(([0-2][1-9])|10|20|30|31)[0-9]{2}$</t>
+  </si>
+  <si>
+    <t>澳门身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^[1|5|7][0-9]{6}[(|</t>
     </r>
     <r>
       <rPr>
@@ -878,7 +813,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>][0-9][)|</t>
+      <t>][0−9Aa][)|</t>
     </r>
     <r>
       <rPr>
@@ -897,123 +832,8 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香港回乡证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>澳门回乡证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(^[0-9]{10}[(|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>][B|D|A][)|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]$)|(^[0-9]{10}[B|D|A]$)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[M|m][0-9]{10}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[H|h][0-9]{10}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^[1-9][0-9]{5}[0-9]{2}((0[1-9])|(10|11|12))(([0-2][1-9])|10|20|30|31)[0-9]{2}$</t>
-  </si>
-  <si>
-    <t>澳门身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>^[1|5|7][0-9]{6}[(|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>][0−9Aa][)|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>]$</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1511,14 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>97版台胞证由8位终身号码+2位换证次数+BDA字母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^1[45][0-9]{7}$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>调整为类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1532,6 +1344,124 @@
   </si>
   <si>
     <t>^[1-9][0-9]{5}(18|19|([23][0-9]))[0-9]{2}((0[1-9])|(10|11|12))(([0-2][1-9])|10|20|30|31)[0-9]{3}[0-9Xx]$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(^[A-Z|a-z][0-9]{6}[(|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][0-9][)|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]$)
+|
+(^[A-Z|a-z][0-9]{6}[0-9]$)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[a-z|A-Z][0-9]{9}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[H|h][0-9]{10}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾身份证，第一个字母表示台湾的市，第二位只能是1或2，表示性别，整体验证为 A台北市10 B台中市11 C基隆市12 D台南市13 E高雄市14 F新北市15 G宜兰县16 H桃园市17 I嘉义市34 J新竹县18 K苗栗县19 M南投县21 N彰化县22 O新竹市35 P云林县23 Q嘉义县24 R台南县25 S高雄县26 T屏东县27 U花莲县28 V台东县29 W金门县32 X澎湖县30 Z连江县33。通算值= 首字母对应的第一位验证码+ 首字母对应的第二位验证码 * 9 + 性别码 * 8 + 第二位数字 * 7 + 第三位数字 * 6 + 第四位数字 * 5 + 第五位数字 * 4 + 第六位数字 * 3 + 第七位数字 * 2 + 第八位数字 * 1，最后一位数 =10- 通算值的末尾数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^[M|m][0-9]{10}$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台胞证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(^[0-9]{10}[(|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>][A-Z|a-z])[)|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]$)|(^[0-9]{10}[A-Z|a-z]$)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首字母按照A=1，B=2变换为数字后乘以8，再将后面6个数字依次乘以7，6，5，4，3，2，再他们的相加后对11取余。如果整除，则括号中的校验码为0，如果余数为1，则校验码为A，如果余数为2～10，则用11减去这个余数的差作校验码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,7 +1615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1728,29 +1658,8 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1762,6 +1671,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2046,7 +1979,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -2063,13 +1996,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="26.25" thickBot="1">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="2:6" s="8" customFormat="1">
       <c r="B2" s="4" t="s">
@@ -2679,7 +2612,7 @@
   <dimension ref="B1:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2722,35 +2655,35 @@
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" thickBot="1">
       <c r="B1" s="23" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="2:10" s="24" customFormat="1" ht="19.5">
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="2:10" s="17" customFormat="1" ht="19.5">
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="26"/>
+        <v>124</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:10" ht="19.5">
       <c r="B3" s="1">
@@ -2760,38 +2693,38 @@
         <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E3" s="13">
         <v>18888953</v>
       </c>
-      <c r="G3" s="27">
-        <f>IF(F3&lt;&gt;"",0,E3+SUMIF($F$3:$F$25,C3,$E$3:$E$25))</f>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:G25" si="0">IF(F3&lt;&gt;"",0,E3+SUMIF($F$3:$F$25,C3,$E$3:$E$25))</f>
         <v>18890200</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="19.5">
       <c r="B4" s="1">
-        <f>B3+1</f>
+        <f t="shared" ref="B4:B25" si="1">B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E4" s="13">
         <v>378608</v>
       </c>
-      <c r="G4" s="27">
-        <f>IF(F4&lt;&gt;"",0,E4+SUMIF($F$3:$F$25,C4,$E$3:$E$25))</f>
+      <c r="G4" s="20">
+        <f t="shared" si="0"/>
         <v>378608</v>
       </c>
       <c r="I4" s="1">
@@ -2799,25 +2732,25 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="19.5">
       <c r="B5" s="1">
-        <f>B4+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="E5" s="13">
         <v>243486</v>
       </c>
-      <c r="G5" s="27">
-        <f>IF(F5&lt;&gt;"",0,E5+SUMIF($F$3:$F$25,C5,$E$3:$E$25))</f>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
         <v>243486</v>
       </c>
       <c r="I5" s="1">
@@ -2825,295 +2758,295 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="19.5">
       <c r="B6" s="1">
-        <f>B5+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E6" s="13">
         <v>120464</v>
       </c>
-      <c r="G6" s="27">
-        <f>IF(F6&lt;&gt;"",0,E6+SUMIF($F$3:$F$25,C6,$E$3:$E$25))</f>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
         <v>120464</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I9" si="0">I5+1</f>
+        <f t="shared" ref="I6:I9" si="2">I5+1</f>
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="19.5">
       <c r="B7" s="1">
-        <f>B6+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E7" s="13">
         <v>116962</v>
       </c>
-      <c r="G7" s="27">
-        <f>IF(F7&lt;&gt;"",0,E7+SUMIF($F$3:$F$25,C7,$E$3:$E$25))</f>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
         <v>116962</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="19.5">
       <c r="B8" s="1">
-        <f>B7+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E8" s="13">
         <v>114167</v>
       </c>
-      <c r="G8" s="27">
-        <f>IF(F8&lt;&gt;"",0,E8+SUMIF($F$3:$F$25,C8,$E$3:$E$25))</f>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
         <v>116774</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="19.5">
       <c r="B9" s="1">
-        <f>B8+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E9" s="13">
         <v>85855</v>
       </c>
-      <c r="G9" s="27">
-        <f>IF(F9&lt;&gt;"",0,E9+SUMIF($F$3:$F$25,C9,$E$3:$E$25))</f>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
         <v>85856</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="19.5">
       <c r="B10" s="1">
-        <f>B9+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E10" s="13">
         <v>46743</v>
       </c>
-      <c r="G10" s="27">
-        <f>IF(F10&lt;&gt;"",0,E10+SUMIF($F$3:$F$25,C10,$E$3:$E$25))</f>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
         <v>46744</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="19.5">
       <c r="B11" s="1">
-        <f>B10+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E11" s="13">
         <v>43968</v>
       </c>
-      <c r="G11" s="27">
-        <f>IF(F11&lt;&gt;"",0,E11+SUMIF($F$3:$F$25,C11,$E$3:$E$25))</f>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
         <v>43968</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="19.5">
       <c r="B12" s="1">
-        <f>B11+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="E12" s="13">
         <v>5025</v>
       </c>
-      <c r="G12" s="27">
-        <f>IF(F12&lt;&gt;"",0,E12+SUMIF($F$3:$F$25,C12,$E$3:$E$25))</f>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
         <v>5025</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="19.5">
       <c r="B13" s="1">
-        <f>B12+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="E13" s="13">
         <v>1706</v>
       </c>
-      <c r="G13" s="27">
-        <f>IF(F13&lt;&gt;"",0,E13+SUMIF($F$3:$F$25,C13,$E$3:$E$25))</f>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
         <v>1706</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="19.5">
       <c r="B14" s="1">
-        <f>B13+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E14" s="13">
         <v>340</v>
       </c>
-      <c r="G14" s="27">
-        <f>IF(F14&lt;&gt;"",0,E14+SUMIF($F$3:$F$25,C14,$E$3:$E$25))</f>
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
         <v>340</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="19.5">
       <c r="B15" s="1">
-        <f>B14+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E15" s="13">
         <v>2607</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="27">
-        <f>IF(F15&lt;&gt;"",0,E15+SUMIF($F$3:$F$25,C15,$E$3:$E$25))</f>
+        <v>119</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="19.5">
       <c r="B16" s="1">
-        <f>B15+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="13">
         <v>1047</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="27">
-        <f>IF(F16&lt;&gt;"",0,E16+SUMIF($F$3:$F$25,C16,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="19.5">
       <c r="B17" s="1">
-        <f>B16+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="13">
         <v>76</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="27">
-        <f>IF(F17&lt;&gt;"",0,E17+SUMIF($F$3:$F$25,C17,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="19.5">
       <c r="B18" s="1">
-        <f>B17+1</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="E18" s="13">
         <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="27">
-        <f>IF(F18&lt;&gt;"",0,E18+SUMIF($F$3:$F$25,C18,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="1">
-        <f>B18+1</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C19" s="1">
@@ -3124,126 +3057,126 @@
         <v>28</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G19" s="27">
-        <f>IF(F19&lt;&gt;"",0,E19+SUMIF($F$3:$F$25,C19,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="19.5">
       <c r="B20" s="1">
-        <f>B19+1</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E20" s="13">
         <v>11</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="27">
-        <f>IF(F20&lt;&gt;"",0,E20+SUMIF($F$3:$F$25,C20,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="19.5">
       <c r="B21" s="1">
-        <f>B20+1</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="E21" s="13">
         <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="27">
-        <f>IF(F21&lt;&gt;"",0,E21+SUMIF($F$3:$F$25,C21,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="19.5">
       <c r="B22" s="1">
-        <f>B21+1</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="E22" s="13">
         <v>3</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="27">
-        <f>IF(F22&lt;&gt;"",0,E22+SUMIF($F$3:$F$25,C22,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="19.5">
       <c r="B23" s="1">
-        <f>B22+1</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E23" s="13">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="27">
-        <f>IF(F23&lt;&gt;"",0,E23+SUMIF($F$3:$F$25,C23,$E$3:$E$25))</f>
+        <v>118</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="19.5">
       <c r="B24" s="1">
-        <f>B23+1</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="27">
-        <f>IF(F24&lt;&gt;"",0,E24+SUMIF($F$3:$F$25,C24,$E$3:$E$25))</f>
+        <v>115</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="1">
-        <f>B24+1</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C25" s="1">
@@ -3254,32 +3187,32 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="27">
-        <f>IF(F25&lt;&gt;"",0,E25+SUMIF($F$3:$F$25,C25,$E$3:$E$25))</f>
+        <v>116</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="D26" s="3"/>
       <c r="E26" s="13"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="19.5">
       <c r="B27" s="1">
         <f>B25+1</f>
         <v>24</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>179</v>
+      <c r="C27" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="27">
+      <c r="E27" s="20">
         <f>SUM(E3:E25)</f>
         <v>20050133</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="20">
         <f>SUM(G3:G25)</f>
         <v>20050133</v>
       </c>
@@ -3417,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E33"/>
+  <dimension ref="B1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3428,18 +3361,18 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="8.875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="145" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="6"/>
     <col min="8" max="8" width="13.25" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:5" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="4" t="s">
@@ -3457,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>89</v>
@@ -3469,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>88</v>
@@ -3477,14 +3410,14 @@
     </row>
     <row r="5" spans="2:5" ht="19.5">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B17" si="0">B4+1</f>
+        <f t="shared" ref="B5:B6" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="19.5">
@@ -3493,210 +3426,98 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="19.5">
       <c r="B7" s="6">
-        <f t="shared" si="0"/>
+        <f>B6+1</f>
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>175</v>
+        <v>91</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="19.5">
       <c r="B8" s="6">
-        <f t="shared" si="0"/>
+        <f>B7+1</f>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="19.5">
-      <c r="B9" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="19.5">
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="19.5">
-      <c r="B11" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="19.5">
-      <c r="B12" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="19.5">
-      <c r="B13" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="19.5">
-      <c r="B14" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="19.5">
-      <c r="B15" s="6">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" ht="19.5">
-      <c r="B16" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="19.5">
-      <c r="B17" s="6">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="3:4">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="3:4" ht="19.5">
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="3:4">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:4" ht="19.5">
-      <c r="C29" s="5"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3712,39 +3533,39 @@
   <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="43.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57" style="6" customWidth="1"/>
     <col min="4" max="6" width="9" style="6"/>
     <col min="7" max="7" width="13.25" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="26.25" thickBot="1">
-      <c r="B1" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="17"/>
+      <c r="B1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="2:4" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="19.5">
-      <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>133</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="97.5">
+      <c r="B3" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="19.5">
@@ -3816,10 +3637,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="24" thickBot="1">
-      <c r="B1" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="18"/>
+      <c r="B1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="2:3" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="10" t="s">
@@ -3831,7 +3652,7 @@
     </row>
     <row r="3" spans="2:3" ht="19.5">
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>90</v>
@@ -3895,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3906,268 +3727,228 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="27.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="13.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="24" thickBot="1">
-      <c r="B1" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="2:18" s="8" customFormat="1" ht="19.5">
+    <row r="1" spans="2:15" ht="24" thickBot="1">
+      <c r="B1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="2" spans="2:15" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-    </row>
-    <row r="4" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-    </row>
-    <row r="5" spans="2:18">
-      <c r="B5" s="21"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="21"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="21"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="21"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="2:18" ht="19.5" customHeight="1">
-      <c r="B11" s="21"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-    </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="21"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-    </row>
-    <row r="13" spans="2:18">
-      <c r="B13" s="21"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-    </row>
-    <row r="14" spans="2:18">
-      <c r="B14" s="21"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-    </row>
-    <row r="15" spans="2:18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B3" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+    </row>
+    <row r="4" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B4" s="26"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="26"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="26"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="26"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+    </row>
+    <row r="11" spans="2:15" ht="19.5" customHeight="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="26"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="26"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="26"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="2:15">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C3:R14"/>
+    <mergeCell ref="C3:O14"/>
     <mergeCell ref="B3:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4177,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F34"/>
+  <dimension ref="B1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4188,22 +3969,20 @@
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="8.875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="13.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="42.125" style="6" customWidth="1"/>
+    <col min="5" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="13.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="26.25" thickBot="1">
-      <c r="B1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="2:6" s="8" customFormat="1" ht="19.5">
+    <row r="1" spans="2:5" ht="26.25" thickBot="1">
+      <c r="B1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="2:5" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
@@ -4211,186 +3990,155 @@
         <v>86</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="19.5">
+    <row r="3" spans="2:5" ht="19.5">
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="6">
-        <f>B3</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="19.5">
+        <v>97</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="19.5">
       <c r="B4" s="6">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D5" si="0">B4</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="19.5">
+        <v>95</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="19.5">
       <c r="B5" s="6">
-        <f t="shared" ref="B5" si="1">B4+1</f>
+        <f t="shared" ref="B5" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" ht="19.5">
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="2:6" ht="19.5">
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="2:6" ht="19.5">
-      <c r="E8" s="11"/>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="19.5">
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="2:6" ht="19.5">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" ht="19.5">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" ht="19.5">
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="2:5" ht="19.5">
+      <c r="D8" s="11"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" ht="19.5">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="2:5" ht="19.5">
       <c r="C10" s="5"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="2:6" ht="19.5">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:5" ht="19.5">
       <c r="C11" s="5"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="2:6" ht="19.5">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="2:5" ht="19.5">
       <c r="C12" s="5"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="2:6" ht="19.5">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="2:5" ht="19.5">
       <c r="C13" s="5"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="2:6" ht="19.5">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="2:5" ht="19.5">
       <c r="C14" s="5"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" ht="19.5">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="2:5" ht="19.5">
       <c r="C15" s="5"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" ht="19.5">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="2:5" ht="19.5">
       <c r="C16" s="5"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="3:5" ht="19.5">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="3:4" ht="19.5">
       <c r="C17" s="5"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="3:5" ht="19.5">
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="3:4" ht="19.5">
       <c r="C18" s="5"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="3:5">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="3:4">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="3:5">
+    </row>
+    <row r="20" spans="3:4">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="3:5">
+    </row>
+    <row r="21" spans="3:4">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="3:5">
+    </row>
+    <row r="22" spans="3:4">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:5">
+    </row>
+    <row r="23" spans="3:4">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="3:5">
+    </row>
+    <row r="24" spans="3:4">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="3:5">
+    </row>
+    <row r="25" spans="3:4">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="3:5">
+    </row>
+    <row r="26" spans="3:4">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="3:5">
+    </row>
+    <row r="27" spans="3:4">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="3:5">
+    </row>
+    <row r="28" spans="3:4">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="3:5">
+    </row>
+    <row r="29" spans="3:4">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="3:5" ht="19.5">
+    </row>
+    <row r="30" spans="3:4" ht="19.5">
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="3:5">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="3:4">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="3:5">
+    </row>
+    <row r="32" spans="3:4">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:5">
+    </row>
+    <row r="33" spans="3:4">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="3:5">
+    </row>
+    <row r="34" spans="3:4">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4417,11 +4165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="26.25" thickBot="1">
-      <c r="B1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:19" s="8" customFormat="1" ht="19.5">
       <c r="B2" s="4" t="s">
@@ -4439,53 +4187,37 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="84.75" customHeight="1">
-      <c r="B4" s="6">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="19.5">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
     </row>
     <row r="5" spans="2:19" ht="19.5">
-      <c r="B5" s="6">
-        <f t="shared" ref="B5:B7" si="0">B4+1</f>
-        <v>3</v>
-      </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="2:19" ht="19.5">
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="2:19" ht="19.5">
-      <c r="B7" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="2:19" ht="19.5">
